--- a/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_Greencool.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_Greencool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\ERASMUS\ERASMUS_GTK\GreenCool_KA220_HED_0027563\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D147B-FB02-4636-85CD-1255FBAEB8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93789349-316F-4BF9-BEF8-BF1A702AFAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="212">
   <si>
     <t>résztvevő</t>
   </si>
@@ -337,9 +337,6 @@
   </si>
   <si>
     <t>különbsége</t>
-  </si>
-  <si>
-    <t>okmány</t>
   </si>
   <si>
     <t>Kinevezés</t>
@@ -12811,11 +12808,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X227"/>
+  <dimension ref="A1:W227"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -12840,35 +12837,35 @@
     <col min="23" max="23" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="C1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="T1" t="s">
         <v>211</v>
       </c>
-      <c r="E1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="X1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="169" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="169"/>
       <c r="C2" s="169"/>
@@ -12892,14 +12889,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
       <c r="D3" s="76" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E3" s="76" t="s">
         <v>23</v>
@@ -12913,10 +12910,10 @@
         <v>25</v>
       </c>
       <c r="J3" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="79" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" s="79" t="s">
-        <v>62</v>
       </c>
       <c r="L3" s="79"/>
       <c r="M3" s="79"/>
@@ -12925,11 +12922,11 @@
         <v>26</v>
       </c>
       <c r="P3" s="130" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="122"/>
       <c r="R3" s="79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3" s="79"/>
       <c r="T3" s="104"/>
@@ -12937,7 +12934,7 @@
       <c r="V3" s="150"/>
       <c r="W3" s="150"/>
     </row>
-    <row r="4" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
         <v>27</v>
       </c>
@@ -12948,7 +12945,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="73" t="s">
         <v>28</v>
@@ -12960,7 +12957,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I4" s="83" t="s">
         <v>30</v>
@@ -12978,35 +12975,35 @@
         <v>31</v>
       </c>
       <c r="N4" s="85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="86" t="s">
         <v>32</v>
       </c>
       <c r="P4" s="131" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="123" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R4" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S4" s="84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T4" s="105"/>
       <c r="U4" s="151" t="s">
+        <v>159</v>
+      </c>
+      <c r="V4" s="151" t="s">
         <v>160</v>
       </c>
-      <c r="V4" s="151" t="s">
+      <c r="W4" s="151" t="s">
         <v>161</v>
       </c>
-      <c r="W4" s="151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="87" t="s">
         <v>33</v>
       </c>
@@ -13015,7 +13012,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="74" t="s">
         <v>35</v>
@@ -13025,7 +13022,7 @@
         <v>36</v>
       </c>
       <c r="H5" s="132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I5" s="89" t="s">
         <v>37</v>
@@ -13039,35 +13036,33 @@
         <v>39</v>
       </c>
       <c r="N5" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="91" t="s">
         <v>40</v>
       </c>
       <c r="P5" s="132" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="124"/>
       <c r="R5" s="90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S5" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="T5" s="106" t="s">
-        <v>41</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="T5" s="106"/>
       <c r="U5" s="152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V5" s="152" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W5" s="152" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -13106,21 +13101,21 @@
       <c r="S6" s="99"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -13162,28 +13157,26 @@
       </c>
       <c r="Q7" s="125"/>
       <c r="R7" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S7" s="99"/>
-      <c r="T7" s="107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="107"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -13225,28 +13218,26 @@
       </c>
       <c r="Q8" s="125"/>
       <c r="R8" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S8" s="99"/>
-      <c r="T8" s="107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="107"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -13288,28 +13279,26 @@
       </c>
       <c r="Q9" s="125"/>
       <c r="R9" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S9" s="99"/>
-      <c r="T9" s="107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="107"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -13351,28 +13340,26 @@
       </c>
       <c r="Q10" s="125"/>
       <c r="R10" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S10" s="99"/>
-      <c r="T10" s="107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="107"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -13416,28 +13403,26 @@
         <v>44740</v>
       </c>
       <c r="R11" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S11" s="99"/>
-      <c r="T11" s="107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="107"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
@@ -13481,28 +13466,26 @@
         <v>44740</v>
       </c>
       <c r="R12" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S12" s="99"/>
-      <c r="T12" s="107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="107"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
@@ -13546,28 +13529,26 @@
         <v>44789</v>
       </c>
       <c r="R13" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S13" s="99"/>
-      <c r="T13" s="107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="107"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -13611,28 +13592,26 @@
         <v>44789</v>
       </c>
       <c r="R14" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S14" s="99"/>
-      <c r="T14" s="107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="107"/>
+    </row>
+    <row r="15" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -13676,15 +13655,13 @@
         <v>44858</v>
       </c>
       <c r="R15" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S15" s="99" t="str">
         <f>VLOOKUP(A15,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8424680057</v>
       </c>
-      <c r="T15" s="107">
-        <v>2</v>
-      </c>
+      <c r="T15" s="107"/>
       <c r="U15" s="149" t="e">
         <v>#N/A</v>
       </c>
@@ -13695,21 +13672,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -13753,40 +13730,38 @@
         <v>44890</v>
       </c>
       <c r="R16" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S16" s="99" t="str">
         <f>VLOOKUP(A16,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8424680057</v>
       </c>
-      <c r="T16" s="107">
-        <v>2</v>
-      </c>
+      <c r="T16" s="107"/>
       <c r="U16" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="V16" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="V16" s="149" t="s">
-        <v>190</v>
-      </c>
       <c r="W16" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>10</v>
@@ -13830,17 +13805,15 @@
         <v>44945</v>
       </c>
       <c r="R17" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S17" s="99" t="str">
         <f>VLOOKUP(A17,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8424680057</v>
       </c>
-      <c r="T17" s="107">
-        <v>2</v>
-      </c>
+      <c r="T17" s="107"/>
       <c r="U17" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V17" s="12">
         <v>0</v>
@@ -13851,19 +13824,19 @@
     </row>
     <row r="18" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -13907,15 +13880,13 @@
         <v>44960</v>
       </c>
       <c r="R18" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S18" s="99" t="str">
         <f>VLOOKUP(A18,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8424680057</v>
       </c>
-      <c r="T18" s="107">
-        <v>1</v>
-      </c>
+      <c r="T18" s="107"/>
       <c r="U18" s="12" t="e">
         <f>IF(VLOOKUP($S18,'Havi béradatok'!$B:$E,2,FALSE)=E18,"EGYEZIK","HIBÁS")</f>
         <v>#N/A</v>
@@ -13931,19 +13902,19 @@
     </row>
     <row r="19" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -13985,28 +13956,26 @@
       </c>
       <c r="Q19" s="125"/>
       <c r="R19" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S19" s="99"/>
-      <c r="T19" s="107">
-        <v>2</v>
-      </c>
+      <c r="T19" s="107"/>
     </row>
     <row r="20" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
@@ -14048,28 +14017,26 @@
       </c>
       <c r="Q20" s="125"/>
       <c r="R20" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S20" s="99"/>
-      <c r="T20" s="107">
-        <v>3</v>
-      </c>
+      <c r="T20" s="107"/>
     </row>
     <row r="21" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -14113,28 +14080,26 @@
         <v>44680</v>
       </c>
       <c r="R21" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S21" s="99"/>
-      <c r="T21" s="107">
-        <v>2</v>
-      </c>
+      <c r="T21" s="107"/>
     </row>
     <row r="22" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -14178,28 +14143,26 @@
         <v>44680</v>
       </c>
       <c r="R22" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S22" s="99"/>
-      <c r="T22" s="107">
-        <v>3</v>
-      </c>
+      <c r="T22" s="107"/>
     </row>
     <row r="23" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>10</v>
@@ -14243,28 +14206,26 @@
         <v>44680</v>
       </c>
       <c r="R23" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S23" s="99"/>
-      <c r="T23" s="107">
-        <v>3</v>
-      </c>
+      <c r="T23" s="107"/>
     </row>
     <row r="24" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
@@ -14308,28 +14269,26 @@
         <v>44680</v>
       </c>
       <c r="R24" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S24" s="99"/>
-      <c r="T24" s="107">
-        <v>3</v>
-      </c>
+      <c r="T24" s="107"/>
     </row>
     <row r="25" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>10</v>
@@ -14373,28 +14332,26 @@
         <v>44771</v>
       </c>
       <c r="R25" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S25" s="99"/>
-      <c r="T25" s="107">
-        <v>3</v>
-      </c>
+      <c r="T25" s="107"/>
     </row>
     <row r="26" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>10</v>
@@ -14438,28 +14395,26 @@
         <v>44771</v>
       </c>
       <c r="R26" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S26" s="99"/>
-      <c r="T26" s="107">
-        <v>2</v>
-      </c>
+      <c r="T26" s="107"/>
     </row>
     <row r="27" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>10</v>
@@ -14503,15 +14458,13 @@
         <v>44771</v>
       </c>
       <c r="R27" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S27" s="99" t="str">
         <f>VLOOKUP(A27,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8389152959</v>
       </c>
-      <c r="T27" s="107">
-        <v>2</v>
-      </c>
+      <c r="T27" s="107"/>
       <c r="U27" s="149" t="e">
         <v>#N/A</v>
       </c>
@@ -14524,19 +14477,19 @@
     </row>
     <row r="28" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
@@ -14580,40 +14533,38 @@
         <v>44771</v>
       </c>
       <c r="R28" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S28" s="99" t="str">
         <f>VLOOKUP(A28,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8389152959</v>
       </c>
-      <c r="T28" s="107">
-        <v>2</v>
-      </c>
+      <c r="T28" s="107"/>
       <c r="U28" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="V28" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="V28" s="149" t="s">
-        <v>190</v>
-      </c>
       <c r="W28" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -14657,17 +14608,15 @@
         <v>44936</v>
       </c>
       <c r="R29" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S29" s="99" t="str">
         <f>VLOOKUP(A29,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8389152959</v>
       </c>
-      <c r="T29" s="107">
-        <v>2</v>
-      </c>
+      <c r="T29" s="107"/>
       <c r="U29" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V29" s="12">
         <v>0</v>
@@ -14678,19 +14627,19 @@
     </row>
     <row r="30" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>10</v>
@@ -14734,15 +14683,13 @@
         <v>44936</v>
       </c>
       <c r="R30" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S30" s="99" t="str">
         <f>VLOOKUP(A30,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8389152959</v>
       </c>
-      <c r="T30" s="107">
-        <v>1</v>
-      </c>
+      <c r="T30" s="107"/>
       <c r="U30" s="12" t="str">
         <f>IF(VLOOKUP($S30,'Havi béradatok'!$B:$E,2,FALSE)=E30,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -14758,19 +14705,19 @@
     </row>
     <row r="31" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>10</v>
@@ -14814,15 +14761,13 @@
         <v>44984</v>
       </c>
       <c r="R31" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S31" s="99" t="str">
         <f>VLOOKUP(A31,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8389152959</v>
       </c>
-      <c r="T31" s="107">
-        <v>1</v>
-      </c>
+      <c r="T31" s="107"/>
       <c r="U31" s="12" t="str">
         <f>IF(VLOOKUP($S31,'Havi béradatok'!$B:$E,2,FALSE)=E31,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -14838,19 +14783,19 @@
     </row>
     <row r="32" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>14</v>
@@ -14894,7 +14839,7 @@
         <v>44984</v>
       </c>
       <c r="R32" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S32" s="99" t="str">
         <f>VLOOKUP(A32,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -14904,19 +14849,19 @@
     </row>
     <row r="33" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>14</v>
@@ -14960,7 +14905,7 @@
         <v>44984</v>
       </c>
       <c r="R33" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S33" s="99" t="str">
         <f>VLOOKUP(A33,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -14970,19 +14915,19 @@
     </row>
     <row r="34" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>14</v>
@@ -15026,7 +14971,7 @@
         <v>44984</v>
       </c>
       <c r="R34" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S34" s="99" t="str">
         <f>VLOOKUP(A34,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -15036,19 +14981,19 @@
     </row>
     <row r="35" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>14</v>
@@ -15092,7 +15037,7 @@
         <v>44984</v>
       </c>
       <c r="R35" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S35" s="99" t="str">
         <f>VLOOKUP(A35,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -15102,19 +15047,19 @@
     </row>
     <row r="36" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>10</v>
@@ -15158,15 +15103,13 @@
         <v>44984</v>
       </c>
       <c r="R36" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S36" s="99" t="str">
         <f>VLOOKUP(A36,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8389152959</v>
       </c>
-      <c r="T36" s="107">
-        <v>1</v>
-      </c>
+      <c r="T36" s="107"/>
       <c r="U36" s="12" t="str">
         <f>IF(VLOOKUP($S36,'Havi béradatok'!$B:$E,2,FALSE)=E36,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -15182,19 +15125,19 @@
     </row>
     <row r="37" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>14</v>
@@ -15238,7 +15181,7 @@
         <v>44984</v>
       </c>
       <c r="R37" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S37" s="99" t="str">
         <f>VLOOKUP(A37,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -15248,19 +15191,19 @@
     </row>
     <row r="38" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>14</v>
@@ -15304,7 +15247,7 @@
         <v>44984</v>
       </c>
       <c r="R38" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S38" s="99" t="str">
         <f>VLOOKUP(A38,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -15314,19 +15257,19 @@
     </row>
     <row r="39" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>14</v>
@@ -15370,7 +15313,7 @@
         <v>44984</v>
       </c>
       <c r="R39" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S39" s="99" t="str">
         <f>VLOOKUP(A39,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -15380,19 +15323,19 @@
     </row>
     <row r="40" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>14</v>
@@ -15436,7 +15379,7 @@
         <v>44984</v>
       </c>
       <c r="R40" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S40" s="99" t="str">
         <f>VLOOKUP(A40,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -15446,19 +15389,19 @@
     </row>
     <row r="41" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>10</v>
@@ -15500,28 +15443,26 @@
       </c>
       <c r="Q41" s="125"/>
       <c r="R41" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S41" s="99"/>
-      <c r="T41" s="107">
-        <v>2</v>
-      </c>
+      <c r="T41" s="107"/>
     </row>
     <row r="42" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -15563,28 +15504,26 @@
       </c>
       <c r="Q42" s="125"/>
       <c r="R42" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S42" s="99"/>
-      <c r="T42" s="107">
-        <v>3</v>
-      </c>
+      <c r="T42" s="107"/>
     </row>
     <row r="43" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>10</v>
@@ -15628,28 +15567,26 @@
         <v>44694</v>
       </c>
       <c r="R43" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S43" s="99"/>
-      <c r="T43" s="107">
-        <v>2</v>
-      </c>
+      <c r="T43" s="107"/>
     </row>
     <row r="44" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>10</v>
@@ -15693,28 +15630,26 @@
         <v>44707</v>
       </c>
       <c r="R44" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S44" s="99"/>
-      <c r="T44" s="107">
-        <v>3</v>
-      </c>
+      <c r="T44" s="107"/>
     </row>
     <row r="45" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>10</v>
@@ -15758,28 +15693,26 @@
         <v>44739</v>
       </c>
       <c r="R45" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S45" s="99"/>
-      <c r="T45" s="107">
-        <v>3</v>
-      </c>
+      <c r="T45" s="107"/>
     </row>
     <row r="46" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
@@ -15823,28 +15756,26 @@
         <v>44739</v>
       </c>
       <c r="R46" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S46" s="99"/>
-      <c r="T46" s="107">
-        <v>3</v>
-      </c>
+      <c r="T46" s="107"/>
     </row>
     <row r="47" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -15888,28 +15819,26 @@
         <v>44788</v>
       </c>
       <c r="R47" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S47" s="99"/>
-      <c r="T47" s="107">
-        <v>3</v>
-      </c>
+      <c r="T47" s="107"/>
     </row>
     <row r="48" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
@@ -15953,28 +15882,26 @@
         <v>44788</v>
       </c>
       <c r="R48" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S48" s="99"/>
-      <c r="T48" s="107">
-        <v>2</v>
-      </c>
+      <c r="T48" s="107"/>
     </row>
     <row r="49" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -16018,15 +15945,13 @@
         <v>44854</v>
       </c>
       <c r="R49" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S49" s="99" t="str">
         <f>VLOOKUP(A49,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8426803148</v>
       </c>
-      <c r="T49" s="107">
-        <v>2</v>
-      </c>
+      <c r="T49" s="107"/>
       <c r="U49" s="149" t="e">
         <v>#N/A</v>
       </c>
@@ -16039,19 +15964,19 @@
     </row>
     <row r="50" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>10</v>
@@ -16095,40 +16020,38 @@
         <v>44854</v>
       </c>
       <c r="R50" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S50" s="99" t="str">
         <f>VLOOKUP(A50,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8426803148</v>
       </c>
-      <c r="T50" s="107">
-        <v>2</v>
-      </c>
+      <c r="T50" s="107"/>
       <c r="U50" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="V50" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="V50" s="149" t="s">
-        <v>190</v>
-      </c>
       <c r="W50" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>10</v>
@@ -16172,17 +16095,15 @@
         <v>44936</v>
       </c>
       <c r="R51" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S51" s="99" t="str">
         <f>VLOOKUP(A51,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8426803148</v>
       </c>
-      <c r="T51" s="107">
-        <v>2</v>
-      </c>
+      <c r="T51" s="107"/>
       <c r="U51" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V51" s="12">
         <v>0</v>
@@ -16193,19 +16114,19 @@
     </row>
     <row r="52" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
@@ -16249,15 +16170,13 @@
         <v>44936</v>
       </c>
       <c r="R52" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S52" s="99" t="str">
         <f>VLOOKUP(A52,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8426803148</v>
       </c>
-      <c r="T52" s="107">
-        <v>1</v>
-      </c>
+      <c r="T52" s="107"/>
       <c r="U52" s="12" t="str">
         <f>IF(VLOOKUP($S52,'Havi béradatok'!$B:$E,2,FALSE)=E52,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -16273,19 +16192,19 @@
     </row>
     <row r="53" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>10</v>
@@ -16329,15 +16248,13 @@
         <v>44991</v>
       </c>
       <c r="R53" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S53" s="99" t="str">
         <f>VLOOKUP(A53,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8426803148</v>
       </c>
-      <c r="T53" s="107">
-        <v>1</v>
-      </c>
+      <c r="T53" s="107"/>
       <c r="U53" s="12" t="str">
         <f>IF(VLOOKUP($S53,'Havi béradatok'!$B:$E,2,FALSE)=E53,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -16353,19 +16270,19 @@
     </row>
     <row r="54" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>14</v>
@@ -16409,7 +16326,7 @@
         <v>44991</v>
       </c>
       <c r="R54" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S54" s="99" t="str">
         <f>VLOOKUP(A54,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -16419,19 +16336,19 @@
     </row>
     <row r="55" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>14</v>
@@ -16475,7 +16392,7 @@
         <v>44991</v>
       </c>
       <c r="R55" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S55" s="99" t="str">
         <f>VLOOKUP(A55,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -16485,19 +16402,19 @@
     </row>
     <row r="56" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>14</v>
@@ -16541,7 +16458,7 @@
         <v>44991</v>
       </c>
       <c r="R56" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S56" s="99" t="str">
         <f>VLOOKUP(A56,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -16551,19 +16468,19 @@
     </row>
     <row r="57" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>14</v>
@@ -16607,7 +16524,7 @@
         <v>44991</v>
       </c>
       <c r="R57" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S57" s="99" t="str">
         <f>VLOOKUP(A57,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -16617,19 +16534,19 @@
     </row>
     <row r="58" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>14</v>
@@ -16673,7 +16590,7 @@
         <v>44991</v>
       </c>
       <c r="R58" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S58" s="99" t="str">
         <f>VLOOKUP(A58,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -16683,19 +16600,19 @@
     </row>
     <row r="59" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
@@ -16739,28 +16656,26 @@
         <v>44663</v>
       </c>
       <c r="R59" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S59" s="99"/>
-      <c r="T59" s="107">
-        <v>3</v>
-      </c>
+      <c r="T59" s="107"/>
     </row>
     <row r="60" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
@@ -16804,28 +16719,26 @@
         <v>44663</v>
       </c>
       <c r="R60" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S60" s="99"/>
-      <c r="T60" s="107">
-        <v>2</v>
-      </c>
+      <c r="T60" s="107"/>
     </row>
     <row r="61" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
@@ -16869,28 +16782,26 @@
         <v>44663</v>
       </c>
       <c r="R61" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S61" s="99"/>
-      <c r="T61" s="107">
-        <v>3</v>
-      </c>
+      <c r="T61" s="107"/>
     </row>
     <row r="62" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -16934,28 +16845,26 @@
         <v>44741</v>
       </c>
       <c r="R62" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S62" s="99"/>
-      <c r="T62" s="107">
-        <v>3</v>
-      </c>
+      <c r="T62" s="107"/>
     </row>
     <row r="63" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>10</v>
@@ -16999,28 +16908,26 @@
         <v>44741</v>
       </c>
       <c r="R63" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S63" s="99"/>
-      <c r="T63" s="107">
-        <v>3</v>
-      </c>
+      <c r="T63" s="107"/>
     </row>
     <row r="64" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>10</v>
@@ -17064,28 +16971,26 @@
         <v>44789</v>
       </c>
       <c r="R64" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S64" s="99"/>
-      <c r="T64" s="107">
-        <v>3</v>
-      </c>
+      <c r="T64" s="107"/>
     </row>
     <row r="65" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>10</v>
@@ -17129,28 +17034,26 @@
         <v>44789</v>
       </c>
       <c r="R65" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S65" s="99"/>
-      <c r="T65" s="107">
-        <v>2</v>
-      </c>
+      <c r="T65" s="107"/>
     </row>
     <row r="66" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
@@ -17194,15 +17097,13 @@
         <v>44789</v>
       </c>
       <c r="R66" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S66" s="99" t="str">
         <f>VLOOKUP(A66,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8456992658</v>
       </c>
-      <c r="T66" s="107">
-        <v>2</v>
-      </c>
+      <c r="T66" s="107"/>
       <c r="U66" s="149" t="e">
         <v>#N/A</v>
       </c>
@@ -17215,19 +17116,19 @@
     </row>
     <row r="67" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>10</v>
@@ -17271,40 +17172,38 @@
         <v>44789</v>
       </c>
       <c r="R67" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S67" s="99" t="str">
         <f>VLOOKUP(A67,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8456992658</v>
       </c>
-      <c r="T67" s="107">
-        <v>2</v>
-      </c>
+      <c r="T67" s="107"/>
       <c r="U67" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="V67" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="V67" s="149" t="s">
-        <v>190</v>
-      </c>
       <c r="W67" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>10</v>
@@ -17348,17 +17247,15 @@
         <v>44944</v>
       </c>
       <c r="R68" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S68" s="99" t="str">
         <f>VLOOKUP(A68,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8456992658</v>
       </c>
-      <c r="T68" s="107">
-        <v>2</v>
-      </c>
+      <c r="T68" s="107"/>
       <c r="U68" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V68" s="12">
         <v>0</v>
@@ -17369,19 +17266,19 @@
     </row>
     <row r="69" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>10</v>
@@ -17425,28 +17322,26 @@
         <v>44788</v>
       </c>
       <c r="R69" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S69" s="99"/>
-      <c r="T69" s="107">
-        <v>3</v>
-      </c>
+      <c r="T69" s="107"/>
     </row>
     <row r="70" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>10</v>
@@ -17490,28 +17385,26 @@
         <v>44788</v>
       </c>
       <c r="R70" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S70" s="99"/>
-      <c r="T70" s="107">
-        <v>2</v>
-      </c>
+      <c r="T70" s="107"/>
     </row>
     <row r="71" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>10</v>
@@ -17555,15 +17448,13 @@
         <v>44788</v>
       </c>
       <c r="R71" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S71" s="99" t="str">
         <f>VLOOKUP(A71,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8414452523</v>
       </c>
-      <c r="T71" s="107">
-        <v>2</v>
-      </c>
+      <c r="T71" s="107"/>
       <c r="U71" s="149" t="e">
         <v>#N/A</v>
       </c>
@@ -17576,19 +17467,19 @@
     </row>
     <row r="72" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -17632,40 +17523,38 @@
         <v>44880</v>
       </c>
       <c r="R72" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S72" s="99" t="str">
         <f>VLOOKUP(A72,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8414452523</v>
       </c>
-      <c r="T72" s="107">
-        <v>2</v>
-      </c>
+      <c r="T72" s="107"/>
       <c r="U72" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="V72" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="V72" s="149" t="s">
-        <v>190</v>
-      </c>
       <c r="W72" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>10</v>
@@ -17709,17 +17598,15 @@
         <v>44932</v>
       </c>
       <c r="R73" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S73" s="99" t="str">
         <f>VLOOKUP(A73,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8414452523</v>
       </c>
-      <c r="T73" s="107">
-        <v>2</v>
-      </c>
+      <c r="T73" s="107"/>
       <c r="U73" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V73" s="12">
         <v>0</v>
@@ -17730,19 +17617,19 @@
     </row>
     <row r="74" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>10</v>
@@ -17786,15 +17673,13 @@
         <v>44932</v>
       </c>
       <c r="R74" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S74" s="99" t="str">
         <f>VLOOKUP(A74,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8414452523</v>
       </c>
-      <c r="T74" s="107">
-        <v>1</v>
-      </c>
+      <c r="T74" s="107"/>
       <c r="U74" s="12" t="str">
         <f>IF(VLOOKUP($S74,'Havi béradatok'!$B:$E,2,FALSE)=E74,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -17810,19 +17695,19 @@
     </row>
     <row r="75" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>10</v>
@@ -17866,15 +17751,13 @@
         <v>44974</v>
       </c>
       <c r="R75" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S75" s="99" t="str">
         <f>VLOOKUP(A75,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8414452523</v>
       </c>
-      <c r="T75" s="107">
-        <v>1</v>
-      </c>
+      <c r="T75" s="107"/>
       <c r="U75" s="12" t="str">
         <f>IF(VLOOKUP($S75,'Havi béradatok'!$B:$E,2,FALSE)=E75,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -17890,19 +17773,19 @@
     </row>
     <row r="76" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>14</v>
@@ -17946,7 +17829,7 @@
         <v>44974</v>
       </c>
       <c r="R76" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S76" s="99" t="str">
         <f>VLOOKUP(A76,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -17956,19 +17839,19 @@
     </row>
     <row r="77" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>14</v>
@@ -18012,7 +17895,7 @@
         <v>44974</v>
       </c>
       <c r="R77" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S77" s="99" t="str">
         <f>VLOOKUP(A77,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -18022,19 +17905,19 @@
     </row>
     <row r="78" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>14</v>
@@ -18078,7 +17961,7 @@
         <v>44974</v>
       </c>
       <c r="R78" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S78" s="99" t="str">
         <f>VLOOKUP(A78,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -18088,19 +17971,19 @@
     </row>
     <row r="79" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>14</v>
@@ -18144,7 +18027,7 @@
         <v>44974</v>
       </c>
       <c r="R79" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S79" s="99" t="str">
         <f>VLOOKUP(A79,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -18154,19 +18037,19 @@
     </row>
     <row r="80" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>10</v>
@@ -18210,15 +18093,13 @@
         <v>44974</v>
       </c>
       <c r="R80" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S80" s="99" t="str">
         <f>VLOOKUP(A80,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8414452523</v>
       </c>
-      <c r="T80" s="107">
-        <v>1</v>
-      </c>
+      <c r="T80" s="107"/>
       <c r="U80" s="12" t="str">
         <f>IF(VLOOKUP($S80,'Havi béradatok'!$B:$E,2,FALSE)=E80,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -18234,19 +18115,19 @@
     </row>
     <row r="81" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>14</v>
@@ -18290,7 +18171,7 @@
         <v>44974</v>
       </c>
       <c r="R81" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S81" s="99" t="str">
         <f>VLOOKUP(A81,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -18300,19 +18181,19 @@
     </row>
     <row r="82" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>14</v>
@@ -18356,7 +18237,7 @@
         <v>44974</v>
       </c>
       <c r="R82" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S82" s="99" t="str">
         <f>VLOOKUP(A82,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -18366,19 +18247,19 @@
     </row>
     <row r="83" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>14</v>
@@ -18422,7 +18303,7 @@
         <v>44974</v>
       </c>
       <c r="R83" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S83" s="99" t="str">
         <f>VLOOKUP(A83,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -18432,19 +18313,19 @@
     </row>
     <row r="84" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>14</v>
@@ -18488,7 +18369,7 @@
         <v>44974</v>
       </c>
       <c r="R84" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S84" s="99" t="str">
         <f>VLOOKUP(A84,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -18498,19 +18379,19 @@
     </row>
     <row r="85" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>10</v>
@@ -18552,28 +18433,26 @@
       </c>
       <c r="Q85" s="125"/>
       <c r="R85" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S85" s="99"/>
-      <c r="T85" s="107">
-        <v>2</v>
-      </c>
+      <c r="T85" s="107"/>
     </row>
     <row r="86" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>10</v>
@@ -18615,28 +18494,26 @@
       </c>
       <c r="Q86" s="125"/>
       <c r="R86" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S86" s="99"/>
-      <c r="T86" s="107">
-        <v>3</v>
-      </c>
+      <c r="T86" s="107"/>
     </row>
     <row r="87" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>10</v>
@@ -18678,28 +18555,26 @@
       </c>
       <c r="Q87" s="125"/>
       <c r="R87" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S87" s="99"/>
-      <c r="T87" s="107">
-        <v>2</v>
-      </c>
+      <c r="T87" s="107"/>
     </row>
     <row r="88" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>10</v>
@@ -18741,28 +18616,26 @@
       </c>
       <c r="Q88" s="125"/>
       <c r="R88" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S88" s="99"/>
-      <c r="T88" s="107">
-        <v>3</v>
-      </c>
+      <c r="T88" s="107"/>
     </row>
     <row r="89" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
@@ -18806,29 +18679,27 @@
         <v>44734</v>
       </c>
       <c r="R89" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S89" s="99"/>
-      <c r="T89" s="107">
-        <v>3</v>
-      </c>
+      <c r="T89" s="107"/>
       <c r="U89" s="99"/>
     </row>
     <row r="90" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>10</v>
@@ -18872,28 +18743,26 @@
         <v>44734</v>
       </c>
       <c r="R90" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S90" s="99"/>
-      <c r="T90" s="107">
-        <v>3</v>
-      </c>
+      <c r="T90" s="107"/>
     </row>
     <row r="91" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
@@ -18937,28 +18806,26 @@
         <v>44804</v>
       </c>
       <c r="R91" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S91" s="99"/>
-      <c r="T91" s="107">
-        <v>3</v>
-      </c>
+      <c r="T91" s="107"/>
     </row>
     <row r="92" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>10</v>
@@ -19002,28 +18869,26 @@
         <v>44830</v>
       </c>
       <c r="R92" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S92" s="99"/>
-      <c r="T92" s="107">
-        <v>2</v>
-      </c>
+      <c r="T92" s="107"/>
     </row>
     <row r="93" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>10</v>
@@ -19067,15 +18932,13 @@
         <v>44830</v>
       </c>
       <c r="R93" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S93" s="99" t="str">
         <f>VLOOKUP(A93,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8393305691</v>
       </c>
-      <c r="T93" s="107">
-        <v>2</v>
-      </c>
+      <c r="T93" s="107"/>
       <c r="U93" s="149" t="e">
         <v>#N/A</v>
       </c>
@@ -19088,19 +18951,19 @@
     </row>
     <row r="94" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
@@ -19144,40 +19007,38 @@
         <v>44830</v>
       </c>
       <c r="R94" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S94" s="99" t="str">
         <f>VLOOKUP(A94,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8393305691</v>
       </c>
-      <c r="T94" s="107">
-        <v>2</v>
-      </c>
+      <c r="T94" s="107"/>
       <c r="U94" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="V94" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="V94" s="149" t="s">
-        <v>190</v>
-      </c>
       <c r="W94" s="160" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>10</v>
@@ -19221,17 +19082,15 @@
         <v>44938</v>
       </c>
       <c r="R95" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S95" s="99" t="str">
         <f>VLOOKUP(A95,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8393305691</v>
       </c>
-      <c r="T95" s="107">
-        <v>2</v>
-      </c>
+      <c r="T95" s="107"/>
       <c r="U95" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V95" s="165">
         <v>1</v>
@@ -19242,19 +19101,19 @@
     </row>
     <row r="96" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>10</v>
@@ -19298,15 +19157,13 @@
         <v>44938</v>
       </c>
       <c r="R96" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S96" s="99" t="str">
         <f>VLOOKUP(A96,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8393305691</v>
       </c>
-      <c r="T96" s="107">
-        <v>1</v>
-      </c>
+      <c r="T96" s="107"/>
       <c r="U96" s="12" t="str">
         <f>IF(VLOOKUP($S96,'Havi béradatok'!$B:$E,2,FALSE)=E96,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -19322,19 +19179,19 @@
     </row>
     <row r="97" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>10</v>
@@ -19378,15 +19235,13 @@
         <v>44974</v>
       </c>
       <c r="R97" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S97" s="99" t="str">
         <f>VLOOKUP(A97,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8393305691</v>
       </c>
-      <c r="T97" s="107">
-        <v>1</v>
-      </c>
+      <c r="T97" s="107"/>
       <c r="U97" s="12" t="str">
         <f>IF(VLOOKUP($S97,'Havi béradatok'!$B:$E,2,FALSE)=E97,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -19402,19 +19257,19 @@
     </row>
     <row r="98" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>14</v>
@@ -19458,7 +19313,7 @@
         <v>44974</v>
       </c>
       <c r="R98" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S98" s="99" t="str">
         <f>VLOOKUP(A98,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -19468,19 +19323,19 @@
     </row>
     <row r="99" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>14</v>
@@ -19524,7 +19379,7 @@
         <v>44974</v>
       </c>
       <c r="R99" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S99" s="99" t="str">
         <f>VLOOKUP(A99,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -19534,19 +19389,19 @@
     </row>
     <row r="100" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>14</v>
@@ -19590,7 +19445,7 @@
         <v>44974</v>
       </c>
       <c r="R100" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S100" s="99" t="str">
         <f>VLOOKUP(A100,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -19600,19 +19455,19 @@
     </row>
     <row r="101" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>10</v>
@@ -19656,15 +19511,13 @@
         <v>44974</v>
       </c>
       <c r="R101" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S101" s="99" t="str">
         <f>VLOOKUP(A101,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8393305691</v>
       </c>
-      <c r="T101" s="107">
-        <v>1</v>
-      </c>
+      <c r="T101" s="107"/>
       <c r="U101" s="12" t="str">
         <f>IF(VLOOKUP($S101,'Havi béradatok'!$B:$E,2,FALSE)=E101,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -19680,19 +19533,19 @@
     </row>
     <row r="102" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>14</v>
@@ -19736,7 +19589,7 @@
         <v>44974</v>
       </c>
       <c r="R102" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S102" s="99" t="str">
         <f>VLOOKUP(A102,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -19746,19 +19599,19 @@
     </row>
     <row r="103" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>14</v>
@@ -19802,7 +19655,7 @@
         <v>44974</v>
       </c>
       <c r="R103" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S103" s="99" t="str">
         <f>VLOOKUP(A103,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -19812,19 +19665,19 @@
     </row>
     <row r="104" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>14</v>
@@ -19868,7 +19721,7 @@
         <v>44974</v>
       </c>
       <c r="R104" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S104" s="99" t="str">
         <f>VLOOKUP(A104,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -19878,19 +19731,19 @@
     </row>
     <row r="105" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E105" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>10</v>
@@ -19932,28 +19785,26 @@
       </c>
       <c r="Q105" s="125"/>
       <c r="R105" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S105" s="99"/>
-      <c r="T105" s="107">
-        <v>3</v>
-      </c>
+      <c r="T105" s="107"/>
     </row>
     <row r="106" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E106" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>10</v>
@@ -19995,28 +19846,26 @@
       </c>
       <c r="Q106" s="125"/>
       <c r="R106" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S106" s="99"/>
-      <c r="T106" s="107">
-        <v>4</v>
-      </c>
+      <c r="T106" s="107"/>
     </row>
     <row r="107" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>10</v>
@@ -20058,28 +19907,26 @@
       </c>
       <c r="Q107" s="125"/>
       <c r="R107" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S107" s="99"/>
-      <c r="T107" s="107">
-        <v>3</v>
-      </c>
+      <c r="T107" s="107"/>
     </row>
     <row r="108" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>10</v>
@@ -20121,28 +19968,26 @@
       </c>
       <c r="Q108" s="125"/>
       <c r="R108" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S108" s="99"/>
-      <c r="T108" s="107">
-        <v>4</v>
-      </c>
+      <c r="T108" s="107"/>
     </row>
     <row r="109" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>10</v>
@@ -20184,28 +20029,26 @@
       </c>
       <c r="Q109" s="125"/>
       <c r="R109" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S109" s="99"/>
-      <c r="T109" s="107">
-        <v>4</v>
-      </c>
+      <c r="T109" s="107"/>
     </row>
     <row r="110" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>10</v>
@@ -20247,28 +20090,26 @@
       </c>
       <c r="Q110" s="125"/>
       <c r="R110" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S110" s="99"/>
-      <c r="T110" s="107">
-        <v>4</v>
-      </c>
+      <c r="T110" s="107"/>
     </row>
     <row r="111" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>10</v>
@@ -20312,28 +20153,26 @@
         <v>44795</v>
       </c>
       <c r="R111" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S111" s="99"/>
-      <c r="T111" s="107">
-        <v>4</v>
-      </c>
+      <c r="T111" s="107"/>
     </row>
     <row r="112" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>10</v>
@@ -20377,28 +20216,26 @@
         <v>44795</v>
       </c>
       <c r="R112" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S112" s="99"/>
-      <c r="T112" s="107">
-        <v>3</v>
-      </c>
+      <c r="T112" s="107"/>
     </row>
     <row r="113" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>10</v>
@@ -20442,15 +20279,13 @@
         <v>44795</v>
       </c>
       <c r="R113" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S113" s="99" t="str">
         <f>VLOOKUP(A113,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8417951342</v>
       </c>
-      <c r="T113" s="107">
-        <v>3</v>
-      </c>
+      <c r="T113" s="107"/>
       <c r="U113" s="149" t="e">
         <v>#N/A</v>
       </c>
@@ -20463,19 +20298,19 @@
     </row>
     <row r="114" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E114" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>10</v>
@@ -20519,40 +20354,38 @@
         <v>44795</v>
       </c>
       <c r="R114" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S114" s="99" t="str">
         <f>VLOOKUP(A114,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8417951342</v>
       </c>
-      <c r="T114" s="107">
-        <v>3</v>
-      </c>
+      <c r="T114" s="107"/>
       <c r="U114" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="V114" s="149" t="s">
         <v>189</v>
       </c>
-      <c r="V114" s="149" t="s">
-        <v>190</v>
-      </c>
       <c r="W114" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>10</v>
@@ -20596,17 +20429,15 @@
         <v>44795</v>
       </c>
       <c r="R115" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S115" s="99" t="str">
         <f>VLOOKUP(A115,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8417951342</v>
       </c>
-      <c r="T115" s="107">
-        <v>3</v>
-      </c>
+      <c r="T115" s="107"/>
       <c r="U115" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V115" s="12">
         <v>0</v>
@@ -20617,19 +20448,19 @@
     </row>
     <row r="116" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>10</v>
@@ -20673,15 +20504,13 @@
         <v>44795</v>
       </c>
       <c r="R116" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S116" s="99" t="str">
         <f>VLOOKUP(A116,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8417951342</v>
       </c>
-      <c r="T116" s="107">
-        <v>2</v>
-      </c>
+      <c r="T116" s="107"/>
       <c r="U116" s="12" t="str">
         <f>IF(VLOOKUP($S116,'Havi béradatok'!$B:$E,2,FALSE)=E116,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -20697,19 +20526,19 @@
     </row>
     <row r="117" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>10</v>
@@ -20753,15 +20582,13 @@
         <v>44974</v>
       </c>
       <c r="R117" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S117" s="99" t="str">
         <f>VLOOKUP(A117,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8417951342</v>
       </c>
-      <c r="T117" s="107">
-        <v>2</v>
-      </c>
+      <c r="T117" s="107"/>
       <c r="U117" s="12" t="str">
         <f>IF(VLOOKUP($S117,'Havi béradatok'!$B:$E,2,FALSE)=E117,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -20777,19 +20604,19 @@
     </row>
     <row r="118" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>14</v>
@@ -20833,7 +20660,7 @@
         <v>44974</v>
       </c>
       <c r="R118" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S118" s="99" t="str">
         <f>VLOOKUP(A118,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -20843,19 +20670,19 @@
     </row>
     <row r="119" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>14</v>
@@ -20899,7 +20726,7 @@
         <v>44974</v>
       </c>
       <c r="R119" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S119" s="99" t="str">
         <f>VLOOKUP(A119,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -20909,19 +20736,19 @@
     </row>
     <row r="120" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>14</v>
@@ -20965,7 +20792,7 @@
         <v>44974</v>
       </c>
       <c r="R120" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S120" s="99" t="str">
         <f>VLOOKUP(A120,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -20975,19 +20802,19 @@
     </row>
     <row r="121" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>14</v>
@@ -21031,7 +20858,7 @@
         <v>44974</v>
       </c>
       <c r="R121" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S121" s="99" t="str">
         <f>VLOOKUP(A121,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -21041,19 +20868,19 @@
     </row>
     <row r="122" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>10</v>
@@ -21097,15 +20924,13 @@
         <v>44974</v>
       </c>
       <c r="R122" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S122" s="99" t="str">
         <f>VLOOKUP(A122,[1]Sheet1!$C:$E,3,FALSE)</f>
         <v>8417951342</v>
       </c>
-      <c r="T122" s="107">
-        <v>2</v>
-      </c>
+      <c r="T122" s="107"/>
       <c r="U122" s="12" t="str">
         <f>IF(VLOOKUP($S122,'Havi béradatok'!$B:$E,2,FALSE)=E122,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -21121,19 +20946,19 @@
     </row>
     <row r="123" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>14</v>
@@ -21177,7 +21002,7 @@
         <v>44974</v>
       </c>
       <c r="R123" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S123" s="99" t="str">
         <f>VLOOKUP(A123,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -21187,19 +21012,19 @@
     </row>
     <row r="124" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>14</v>
@@ -21243,7 +21068,7 @@
         <v>44974</v>
       </c>
       <c r="R124" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S124" s="99" t="str">
         <f>VLOOKUP(A124,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -21253,19 +21078,19 @@
     </row>
     <row r="125" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>14</v>
@@ -21309,7 +21134,7 @@
         <v>44974</v>
       </c>
       <c r="R125" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S125" s="99" t="str">
         <f>VLOOKUP(A125,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -21319,19 +21144,19 @@
     </row>
     <row r="126" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>14</v>
@@ -21375,7 +21200,7 @@
         <v>44974</v>
       </c>
       <c r="R126" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S126" s="99" t="str">
         <f>VLOOKUP(A126,[1]Sheet1!$C:$E,3,FALSE)</f>
@@ -21385,19 +21210,19 @@
     </row>
     <row r="127" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>10</v>
@@ -21439,28 +21264,26 @@
       </c>
       <c r="Q127" s="125"/>
       <c r="R127" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S127" s="99"/>
-      <c r="T127" s="107">
-        <v>2</v>
-      </c>
+      <c r="T127" s="107"/>
     </row>
     <row r="128" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>10</v>
@@ -21502,28 +21325,26 @@
       </c>
       <c r="Q128" s="125"/>
       <c r="R128" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S128" s="99"/>
-      <c r="T128" s="107">
-        <v>3</v>
-      </c>
+      <c r="T128" s="107"/>
     </row>
     <row r="129" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>10</v>
@@ -21567,14 +21388,12 @@
         <v>44959</v>
       </c>
       <c r="R129" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S129" s="167" t="s">
-        <v>192</v>
-      </c>
-      <c r="T129" s="107">
-        <v>1</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="T129" s="107"/>
       <c r="U129" s="12" t="str">
         <f>IF(VLOOKUP($S129,'Havi béradatok'!$B:$E,2,FALSE)=E129,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -21590,19 +21409,19 @@
     </row>
     <row r="130" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>10</v>
@@ -21646,14 +21465,12 @@
         <v>44974</v>
       </c>
       <c r="R130" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S130" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="T130" s="107">
-        <v>1</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="T130" s="107"/>
       <c r="U130" s="12" t="str">
         <f>IF(VLOOKUP($S130,'Havi béradatok'!$B:$E,2,FALSE)=E130,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -21669,19 +21486,19 @@
     </row>
     <row r="131" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>14</v>
@@ -21725,7 +21542,7 @@
         <v>44974</v>
       </c>
       <c r="R131" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S131" s="99">
         <v>8403181604</v>
@@ -21734,19 +21551,19 @@
     </row>
     <row r="132" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>14</v>
@@ -21790,7 +21607,7 @@
         <v>44974</v>
       </c>
       <c r="R132" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S132" s="99">
         <v>8403181604</v>
@@ -21799,19 +21616,19 @@
     </row>
     <row r="133" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>14</v>
@@ -21855,7 +21672,7 @@
         <v>44974</v>
       </c>
       <c r="R133" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S133" s="99">
         <v>8403181604</v>
@@ -21864,19 +21681,19 @@
     </row>
     <row r="134" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>14</v>
@@ -21920,7 +21737,7 @@
         <v>44974</v>
       </c>
       <c r="R134" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S134" s="99">
         <v>8403181604</v>
@@ -21929,19 +21746,19 @@
     </row>
     <row r="135" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>10</v>
@@ -21985,14 +21802,12 @@
         <v>44959</v>
       </c>
       <c r="R135" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S135" s="167" t="s">
-        <v>192</v>
-      </c>
-      <c r="T135" s="107">
-        <v>1</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="T135" s="107"/>
       <c r="U135" s="12" t="str">
         <f>IF(VLOOKUP($S135,'Havi béradatok'!$B:$E,2,FALSE)=E135,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -22008,19 +21823,19 @@
     </row>
     <row r="136" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>10</v>
@@ -22064,14 +21879,12 @@
         <v>44974</v>
       </c>
       <c r="R136" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S136" s="99" t="s">
-        <v>192</v>
-      </c>
-      <c r="T136" s="107">
-        <v>1</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="T136" s="107"/>
       <c r="U136" s="12" t="str">
         <f>IF(VLOOKUP($S136,'Havi béradatok'!$B:$E,2,FALSE)=E136,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -22087,19 +21900,19 @@
     </row>
     <row r="137" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>14</v>
@@ -22143,7 +21956,7 @@
         <v>44974</v>
       </c>
       <c r="R137" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S137" s="99">
         <v>8403181604</v>
@@ -22152,19 +21965,19 @@
     </row>
     <row r="138" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>14</v>
@@ -22208,7 +22021,7 @@
         <v>44974</v>
       </c>
       <c r="R138" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S138" s="99">
         <v>8403181604</v>
@@ -22217,19 +22030,19 @@
     </row>
     <row r="139" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>14</v>
@@ -22273,7 +22086,7 @@
         <v>44974</v>
       </c>
       <c r="R139" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S139" s="99">
         <v>8403181604</v>
@@ -22282,19 +22095,19 @@
     </row>
     <row r="140" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>14</v>
@@ -22338,7 +22151,7 @@
         <v>44974</v>
       </c>
       <c r="R140" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S140" s="99">
         <v>8403181604</v>
@@ -22347,19 +22160,19 @@
     </row>
     <row r="141" spans="1:23" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>10</v>
@@ -22401,28 +22214,26 @@
       </c>
       <c r="Q141" s="125"/>
       <c r="R141" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S141" s="99"/>
-      <c r="T141" s="107">
-        <v>2</v>
-      </c>
+      <c r="T141" s="107"/>
     </row>
     <row r="142" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>10</v>
@@ -22466,28 +22277,26 @@
         <v>44663</v>
       </c>
       <c r="R142" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S142" s="99"/>
-      <c r="T142" s="107">
-        <v>3</v>
-      </c>
+      <c r="T142" s="107"/>
     </row>
     <row r="143" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>10</v>
@@ -22531,28 +22340,26 @@
         <v>44663</v>
       </c>
       <c r="R143" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S143" s="99"/>
-      <c r="T143" s="107">
-        <v>2</v>
-      </c>
+      <c r="T143" s="107"/>
     </row>
     <row r="144" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>10</v>
@@ -22596,28 +22403,26 @@
         <v>44663</v>
       </c>
       <c r="R144" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S144" s="99"/>
-      <c r="T144" s="107">
-        <v>3</v>
-      </c>
+      <c r="T144" s="107"/>
     </row>
     <row r="145" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>10</v>
@@ -22661,28 +22466,26 @@
         <v>44732</v>
       </c>
       <c r="R145" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S145" s="99"/>
-      <c r="T145" s="107">
-        <v>3</v>
-      </c>
+      <c r="T145" s="107"/>
     </row>
     <row r="146" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>10</v>
@@ -22726,28 +22529,26 @@
         <v>44732</v>
       </c>
       <c r="R146" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S146" s="99"/>
-      <c r="T146" s="107">
-        <v>3</v>
-      </c>
+      <c r="T146" s="107"/>
     </row>
     <row r="147" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>10</v>
@@ -22791,28 +22592,26 @@
         <v>44788</v>
       </c>
       <c r="R147" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S147" s="99"/>
-      <c r="T147" s="107">
-        <v>3</v>
-      </c>
+      <c r="T147" s="107"/>
     </row>
     <row r="148" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>10</v>
@@ -22856,28 +22655,26 @@
         <v>44830</v>
       </c>
       <c r="R148" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S148" s="99"/>
-      <c r="T148" s="107">
-        <v>2</v>
-      </c>
+      <c r="T148" s="107"/>
     </row>
     <row r="149" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>10</v>
@@ -22921,14 +22718,12 @@
         <v>44830</v>
       </c>
       <c r="R149" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S149" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="T149" s="107">
-        <v>2</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="T149" s="107"/>
       <c r="U149" s="149" t="e">
         <v>#N/A</v>
       </c>
@@ -22941,19 +22736,19 @@
     </row>
     <row r="150" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>10</v>
@@ -22997,39 +22792,37 @@
         <v>44830</v>
       </c>
       <c r="R150" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S150" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="T150" s="107">
-        <v>2</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="T150" s="107"/>
       <c r="U150" s="149" t="s">
+        <v>188</v>
+      </c>
+      <c r="V150" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="V150" s="160" t="s">
-        <v>190</v>
-      </c>
       <c r="W150" s="149" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>10</v>
@@ -23073,16 +22866,14 @@
         <v>44936</v>
       </c>
       <c r="R151" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S151" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="T151" s="107">
-        <v>2</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="T151" s="107"/>
       <c r="U151" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V151" s="12">
         <v>0</v>
@@ -23093,19 +22884,19 @@
     </row>
     <row r="152" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>10</v>
@@ -23149,14 +22940,12 @@
         <v>44936</v>
       </c>
       <c r="R152" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S152" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="T152" s="107">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="T152" s="107"/>
       <c r="U152" s="12" t="str">
         <f>IF(VLOOKUP($S152,'Havi béradatok'!$B:$E,2,FALSE)=E152,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -23172,19 +22961,19 @@
     </row>
     <row r="153" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>10</v>
@@ -23228,14 +23017,12 @@
         <v>44986</v>
       </c>
       <c r="R153" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S153" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="T153" s="107">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="T153" s="107"/>
       <c r="U153" s="12" t="str">
         <f>IF(VLOOKUP($S153,'Havi béradatok'!$B:$E,2,FALSE)=E153,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -23251,19 +23038,19 @@
     </row>
     <row r="154" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>14</v>
@@ -23307,28 +23094,28 @@
         <v>44986</v>
       </c>
       <c r="R154" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S154" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T154" s="107"/>
     </row>
     <row r="155" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>14</v>
@@ -23373,25 +23160,25 @@
       </c>
       <c r="R155" s="99"/>
       <c r="S155" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T155" s="107"/>
     </row>
     <row r="156" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>14</v>
@@ -23436,25 +23223,25 @@
       </c>
       <c r="R156" s="99"/>
       <c r="S156" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T156" s="107"/>
     </row>
     <row r="157" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>10</v>
@@ -23498,14 +23285,12 @@
         <v>44986</v>
       </c>
       <c r="R157" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S157" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="T157" s="107">
-        <v>1</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="T157" s="107"/>
       <c r="U157" s="12" t="str">
         <f>IF(VLOOKUP($S157,'Havi béradatok'!$B:$E,2,FALSE)=E157,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -23521,19 +23306,19 @@
     </row>
     <row r="158" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>14</v>
@@ -23577,28 +23362,28 @@
         <v>44986</v>
       </c>
       <c r="R158" s="99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S158" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T158" s="107"/>
     </row>
     <row r="159" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>14</v>
@@ -23643,25 +23428,25 @@
       </c>
       <c r="R159" s="99"/>
       <c r="S159" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T159" s="107"/>
     </row>
     <row r="160" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>14</v>
@@ -23706,7 +23491,7 @@
       </c>
       <c r="R160" s="99"/>
       <c r="S160" s="99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T160" s="107"/>
     </row>
@@ -24065,7 +23850,7 @@
     </row>
     <row r="177" spans="2:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B177" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F177" s="23" t="s">
         <v>10</v>
@@ -24080,7 +23865,7 @@
     </row>
     <row r="178" spans="2:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B178" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F178" s="23" t="s">
         <v>14</v>
@@ -24095,7 +23880,7 @@
     </row>
     <row r="179" spans="2:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B179" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K179" s="28"/>
       <c r="L179" s="31"/>
@@ -24107,7 +23892,7 @@
     </row>
     <row r="180" spans="2:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B180" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K180" s="28"/>
       <c r="L180" s="31"/>
@@ -24119,7 +23904,7 @@
     </row>
     <row r="181" spans="2:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B181" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K181" s="28"/>
       <c r="L181" s="31"/>
@@ -24598,7 +24383,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="146"/>
       <c r="F1" s="24"/>
@@ -24609,7 +24394,7 @@
     </row>
     <row r="2" spans="1:9" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="146"/>
       <c r="F2" s="24"/>
@@ -24620,7 +24405,7 @@
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="146"/>
       <c r="F3" s="24"/>
@@ -24629,7 +24414,7 @@
     </row>
     <row r="4" spans="1:9" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="146"/>
       <c r="F4" s="24"/>
@@ -24638,7 +24423,7 @@
     </row>
     <row r="5" spans="1:9" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B5" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="146"/>
       <c r="F5" s="24"/>
@@ -24665,7 +24450,7 @@
     </row>
     <row r="9" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24688,7 +24473,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="52" t="s">
         <v>13</v>
@@ -24699,16 +24484,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="147">
         <v>5100003717</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="21">
         <v>31750</v>
@@ -24724,16 +24509,16 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="147">
         <v>5100004026</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="21">
         <v>20660</v>
@@ -24749,16 +24534,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="147" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" t="s">
         <v>127</v>
       </c>
-      <c r="D13" t="s">
-        <v>128</v>
-      </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="21">
         <v>6826</v>
@@ -24775,16 +24560,16 @@
     <row r="14" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="144">
         <v>5100003995</v>
       </c>
       <c r="D14" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="F14" s="42">
         <v>94736</v>
@@ -24801,16 +24586,16 @@
     <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="E15" s="38" t="s">
         <v>128</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>129</v>
       </c>
       <c r="F15" s="42">
         <v>31301</v>
@@ -24827,16 +24612,16 @@
     <row r="16" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="148" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>149</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>150</v>
       </c>
       <c r="F16" s="42">
         <v>101412</v>
@@ -24849,22 +24634,22 @@
         <v>10</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="148" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="42">
         <v>9229</v>
@@ -24877,22 +24662,22 @@
         <v>10</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="148">
         <v>5100008119</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="42">
         <v>263692</v>
@@ -24905,22 +24690,22 @@
         <v>10</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="148">
         <v>5100008114</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F19" s="42">
         <v>3283</v>
@@ -24933,22 +24718,22 @@
         <v>10</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="42">
         <v>101412</v>
@@ -24961,22 +24746,22 @@
         <v>10</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F21" s="42">
         <v>9228</v>
@@ -24989,22 +24774,22 @@
         <v>10</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="148">
         <v>5100008098</v>
       </c>
       <c r="D22" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>144</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="F22" s="42">
         <v>45010</v>
@@ -25017,22 +24802,22 @@
         <v>10</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="148">
         <v>5100008107</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="42">
         <v>186112</v>
@@ -25045,22 +24830,22 @@
         <v>10</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="42">
         <v>15603</v>
@@ -25073,22 +24858,22 @@
         <v>10</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="148">
         <v>5100007966</v>
       </c>
       <c r="D25" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="E25" s="38" t="s">
-        <v>142</v>
       </c>
       <c r="F25" s="42">
         <v>26872</v>
@@ -25101,22 +24886,22 @@
         <v>10</v>
       </c>
       <c r="I25" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="148">
         <v>5100008097</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F26" s="42">
         <v>4997</v>
@@ -25129,22 +24914,22 @@
         <v>10</v>
       </c>
       <c r="I26" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="148">
         <v>5100009099</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F27" s="42">
         <v>266286</v>
@@ -25157,22 +24942,22 @@
         <v>10</v>
       </c>
       <c r="I27" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C28" s="148" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F28" s="42">
         <v>1850</v>
@@ -25185,22 +24970,22 @@
         <v>10</v>
       </c>
       <c r="I28" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="148">
         <v>5100009105</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F29" s="42">
         <v>7758</v>
@@ -25213,22 +24998,22 @@
         <v>10</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="148">
         <v>5100009110</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F30" s="42">
         <v>1642</v>
@@ -25241,22 +25026,22 @@
         <v>10</v>
       </c>
       <c r="I30" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="148">
         <v>4500009086</v>
       </c>
       <c r="D31" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="38" t="s">
         <v>175</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>176</v>
       </c>
       <c r="F31" s="42">
         <v>336550</v>
@@ -25273,16 +25058,16 @@
     <row r="32" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="148">
         <v>5100011559</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F32" s="42">
         <v>-1641</v>
@@ -25295,22 +25080,22 @@
         <v>10</v>
       </c>
       <c r="I32" s="40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="D33" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="E33" s="38" t="s">
         <v>179</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>180</v>
       </c>
       <c r="F33" s="42">
         <v>94825</v>
@@ -25323,22 +25108,22 @@
         <v>10</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="38" t="s">
-        <v>179</v>
-      </c>
       <c r="E34" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F34" s="42">
         <v>8629</v>
@@ -25351,22 +25136,22 @@
         <v>10</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D35" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" s="42">
         <v>18677</v>
@@ -25379,22 +25164,22 @@
         <v>10</v>
       </c>
       <c r="I35" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="148">
         <v>5100012160</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F36" s="42">
         <v>123243</v>
@@ -25407,22 +25192,22 @@
         <v>10</v>
       </c>
       <c r="I36" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" s="148">
         <v>5100011802</v>
       </c>
       <c r="D37" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>183</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>184</v>
       </c>
       <c r="F37" s="42">
         <v>171421</v>
@@ -25435,22 +25220,22 @@
         <v>10</v>
       </c>
       <c r="I37" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="148">
         <v>5100011803</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F38" s="42">
         <v>8913</v>
@@ -25463,22 +25248,22 @@
         <v>10</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="148" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F39" s="42">
         <v>94825</v>
@@ -25491,22 +25276,22 @@
         <v>10</v>
       </c>
       <c r="I39" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="148" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F40" s="42">
         <v>8629</v>
@@ -25519,22 +25304,22 @@
         <v>10</v>
       </c>
       <c r="I40" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="148" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F41" s="42">
         <v>12158</v>
@@ -25547,22 +25332,22 @@
         <v>10</v>
       </c>
       <c r="I41" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
       <c r="B42" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="148">
         <v>5100012155</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="42">
         <v>3283</v>
@@ -25575,22 +25360,22 @@
         <v>10</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C43" s="148">
         <v>450009796</v>
       </c>
       <c r="D43" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E43" s="38" t="s">
         <v>199</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>200</v>
       </c>
       <c r="F43" s="42">
         <v>31750</v>
@@ -25607,16 +25392,16 @@
     <row r="44" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>
       <c r="B44" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" s="148" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="E44" s="38" t="s">
         <v>207</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>208</v>
       </c>
       <c r="F44" s="42">
         <v>70400</v>
@@ -25629,7 +25414,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -25774,7 +25559,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -25782,19 +25567,19 @@
         <v>21</v>
       </c>
       <c r="B3" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="116" t="s">
+      <c r="E3" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="118" t="s">
-        <v>55</v>
-      </c>
       <c r="H3" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="92">
         <f>SUMIFS(Bérköltség!$L$6:$L$174,Bérköltség!$F$6:$F$174,"Tény")+SUMIFS(Bérköltség!$M$6:$M$174,Bérköltség!$F$6:$F$174,"Tény")+SUMIFS(Dologi_Felhalm.!$F$11:$F$51,Dologi_Felhalm.!$H$11:$H$51,"Tény")</f>
@@ -25803,7 +25588,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="66">
         <v>16000</v>
@@ -25821,7 +25606,7 @@
         <v>9315.4369850060757</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I4" s="92">
         <f>SUMIFS(Bérköltség!$L$6:$L$174,Bérköltség!$F$6:$F$174,"Köt. váll.")+SUMIFS(Bérköltség!$M$6:$M$174,Bérköltség!$F$6:$F$174,"Köt. váll.")+SUMIFS(Dologi_Felhalm.!$F$11:$F$51,Dologi_Felhalm.!$H$11:$H$51,"Köt. váll.")</f>
@@ -25830,7 +25615,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="66">
         <v>11100</v>
@@ -25850,7 +25635,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="66">
         <v>8335</v>
@@ -25870,7 +25655,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="66">
         <v>11540</v>
@@ -25890,7 +25675,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="66">
         <v>13020</v>
@@ -25910,7 +25695,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="66">
         <v>4600</v>
@@ -25930,7 +25715,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="66">
         <v>2500</v>
@@ -25950,7 +25735,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="66">
         <v>1732</v>
@@ -25970,7 +25755,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="66">
         <v>4758</v>
@@ -26025,7 +25810,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="70">
         <f>B15*B20</f>
@@ -26037,7 +25822,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="63">
         <v>29434</v>
@@ -26048,7 +25833,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="61">
         <v>44582</v>
@@ -26056,13 +25841,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>370.15</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -26075,7 +25860,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="115">
         <f>Bérköltség!L175+Bérköltség!M175+Dologi_Felhalm.!F52</f>
@@ -26084,7 +25869,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="112">
         <f>Bérköltség!N175+Dologi_Felhalm.!G52</f>
@@ -26097,13 +25882,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="113" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="114"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="114">
         <f>B15-B26</f>
@@ -26128,162 +25913,162 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -26306,30 +26091,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="C1" s="154" t="s">
         <v>165</v>
       </c>
-      <c r="C1" s="154" t="s">
-        <v>166</v>
-      </c>
       <c r="D1" s="154" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="154" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="154" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="155" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="155" t="s">
-        <v>168</v>
-      </c>
       <c r="C2" s="156" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="157">
         <v>933380</v>
@@ -26340,13 +26125,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="155" t="s">
-        <v>170</v>
-      </c>
       <c r="C3" s="156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="157">
         <v>1312676</v>
@@ -26359,7 +26144,7 @@
       <c r="A4" s="159"/>
       <c r="B4" s="158"/>
       <c r="C4" s="156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="157"/>
       <c r="E4" s="157">
@@ -26368,13 +26153,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="166" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="B5" s="155" t="s">
-        <v>192</v>
-      </c>
       <c r="C5" s="156" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="157">
         <v>723580</v>
@@ -26385,13 +26170,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="166" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="155" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="157">
         <v>736829</v>
@@ -26402,13 +26187,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="155" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="157">
         <v>727131</v>
@@ -26419,11 +26204,11 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="155" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="155"/>
       <c r="C8" s="156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="157"/>
       <c r="E8" s="157">
@@ -26433,10 +26218,10 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="158"/>
       <c r="B9" s="155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C9" s="156" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="157">
         <v>638900</v>
@@ -26449,7 +26234,7 @@
       <c r="A10" s="158"/>
       <c r="B10" s="158"/>
       <c r="C10" s="156" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="157">
         <v>0</v>
@@ -26462,7 +26247,7 @@
       <c r="A11" s="158"/>
       <c r="B11" s="158"/>
       <c r="C11" s="156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="157"/>
       <c r="E11" s="157">
@@ -26473,7 +26258,7 @@
       <c r="A12" s="158"/>
       <c r="B12" s="158"/>
       <c r="C12" s="156" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="157"/>
       <c r="E12" s="157">
@@ -26484,7 +26269,7 @@
       <c r="A13" s="159"/>
       <c r="B13" s="158"/>
       <c r="C13" s="156" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="157"/>
       <c r="E13" s="157">
@@ -26493,13 +26278,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="157">
         <v>877694</v>
@@ -26512,7 +26297,7 @@
       <c r="A15" s="159"/>
       <c r="B15" s="158"/>
       <c r="C15" s="156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="157"/>
       <c r="E15" s="157">
